--- a/data/trans_orig/P21D1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>50914</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36636</v>
+        <v>37996</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67842</v>
+        <v>67280</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2083145487908234</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1498962246815353</v>
+        <v>0.1554583683298872</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2775735146354931</v>
+        <v>0.275273473600377</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -762,19 +762,19 @@
         <v>49532</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38209</v>
+        <v>38366</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62079</v>
+        <v>62851</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2109341717555927</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1627152950102197</v>
+        <v>0.1633829460563351</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2643650030567887</v>
+        <v>0.267653001793362</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -783,19 +783,19 @@
         <v>100447</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82250</v>
+        <v>83870</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>121228</v>
+        <v>122152</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2095981602166374</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.171628188049638</v>
+        <v>0.1750085856052161</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.25296177377262</v>
+        <v>0.2548900125626271</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>187136</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>168574</v>
+        <v>170238</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>201926</v>
+        <v>200721</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7656652577061016</v>
+        <v>0.7656652577061015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.689716282203971</v>
+        <v>0.696526879841511</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8261790639264135</v>
+        <v>0.8212486618847259</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>248</v>
@@ -833,19 +833,19 @@
         <v>180203</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>167436</v>
+        <v>166036</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>192087</v>
+        <v>191447</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7673968319600966</v>
+        <v>0.7673968319600964</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7130269463424047</v>
+        <v>0.7070640001003301</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8180041401542951</v>
+        <v>0.8152768049182553</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>442</v>
@@ -854,19 +854,19 @@
         <v>367339</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>346898</v>
+        <v>344106</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>387533</v>
+        <v>384414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7665137265609578</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7238591399772732</v>
+        <v>0.7180332522821277</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8086501390012715</v>
+        <v>0.8021423537206084</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>6360</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1975</v>
+        <v>1955</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16347</v>
+        <v>18050</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02602019350307492</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008080560429653801</v>
+        <v>0.007997358139213083</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06688157985197449</v>
+        <v>0.07385147455692334</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -904,19 +904,19 @@
         <v>5088</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1937</v>
+        <v>2017</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11350</v>
+        <v>12478</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02166899628431084</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008247214962758143</v>
+        <v>0.00858888345434705</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04833577551987908</v>
+        <v>0.05313889554144806</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -925,19 +925,19 @@
         <v>11448</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6042</v>
+        <v>5613</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23927</v>
+        <v>23014</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02388811322240472</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01260702879969059</v>
+        <v>0.01171347464912816</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04992713062661443</v>
+        <v>0.04802169998726401</v>
       </c>
     </row>
     <row r="7">
@@ -1076,19 +1076,19 @@
         <v>42303</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31566</v>
+        <v>30847</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>55727</v>
+        <v>54329</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2148177453973001</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1602934992556802</v>
+        <v>0.1566402229490655</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2829808444730373</v>
+        <v>0.2758859573614848</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>47</v>
@@ -1097,19 +1097,19 @@
         <v>36496</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>27679</v>
+        <v>26794</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46936</v>
+        <v>46898</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1856142159902517</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1407717661086324</v>
+        <v>0.136269526737637</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2387105291306055</v>
+        <v>0.2385210965968075</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>87</v>
@@ -1118,19 +1118,19 @@
         <v>78799</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>64126</v>
+        <v>64829</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>94625</v>
+        <v>96155</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2002273034250299</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1629422920300918</v>
+        <v>0.164729759427105</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2404402333571609</v>
+        <v>0.2443288175101102</v>
       </c>
     </row>
     <row r="10">
@@ -1147,19 +1147,19 @@
         <v>152523</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139228</v>
+        <v>140439</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>163876</v>
+        <v>164544</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7745169148814928</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7070050556623279</v>
+        <v>0.7131519219162251</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8321676783265229</v>
+        <v>0.8355582720575394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>215</v>
@@ -1168,19 +1168,19 @@
         <v>154417</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>143761</v>
+        <v>143774</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>164041</v>
+        <v>164359</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7853497710465354</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7311559776248846</v>
+        <v>0.7312190846112068</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8342966456629534</v>
+        <v>0.8359152760827375</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>367</v>
@@ -1189,19 +1189,19 @@
         <v>306940</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>289901</v>
+        <v>290279</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>322359</v>
+        <v>322429</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7799291428717117</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7366334132735081</v>
+        <v>0.7375933368791927</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8191069647269649</v>
+        <v>0.8192849631768602</v>
       </c>
     </row>
     <row r="11">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8110</v>
+        <v>6736</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01066533972120708</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04118505776184367</v>
+        <v>0.03420729609609519</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1239,19 +1239,19 @@
         <v>5709</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2305</v>
+        <v>2257</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12720</v>
+        <v>12958</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02903601296321284</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01172515127858226</v>
+        <v>0.01147926970966122</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06469323810133629</v>
+        <v>0.06590173996432173</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1260,19 +1260,19 @@
         <v>7809</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3339</v>
+        <v>3522</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15999</v>
+        <v>15284</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01984355370325852</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008484341148085687</v>
+        <v>0.008950082486867295</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04065373022908814</v>
+        <v>0.03883631827540666</v>
       </c>
     </row>
     <row r="12">
@@ -1411,19 +1411,19 @@
         <v>42101</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30869</v>
+        <v>30336</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57832</v>
+        <v>56712</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2229485366873913</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1634708029189082</v>
+        <v>0.1606440012446368</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3062512836897108</v>
+        <v>0.3003246426189886</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -1435,16 +1435,16 @@
         <v>8864</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20706</v>
+        <v>21157</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1633231924023158</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1023268144423261</v>
+        <v>0.1023342986803242</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.239039452276813</v>
+        <v>0.244246093598218</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>56</v>
@@ -1453,19 +1453,19 @@
         <v>56248</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42763</v>
+        <v>41915</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>72016</v>
+        <v>72202</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2041986417561781</v>
+        <v>0.204198641756178</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1552434104507065</v>
+        <v>0.152164197608897</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2614391924098949</v>
+        <v>0.2621155064058273</v>
       </c>
     </row>
     <row r="15">
@@ -1482,19 +1482,19 @@
         <v>145732</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>130521</v>
+        <v>130620</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>156989</v>
+        <v>157332</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7717362626963372</v>
+        <v>0.7717362626963371</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.69118556920629</v>
+        <v>0.6917065581438665</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8313470786742092</v>
+        <v>0.8331616392269228</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>103</v>
@@ -1503,19 +1503,19 @@
         <v>69068</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>61909</v>
+        <v>61567</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>74992</v>
+        <v>74768</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.7973555253653308</v>
+        <v>0.7973555253653306</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7147070363935161</v>
+        <v>0.7107628687711823</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8657474821079049</v>
+        <v>0.8631622809940218</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>256</v>
@@ -1524,19 +1524,19 @@
         <v>214800</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>198446</v>
+        <v>198371</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>228323</v>
+        <v>228041</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.77979254294123</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7204227898650594</v>
+        <v>0.720148543830163</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8288851844462477</v>
+        <v>0.8278612228038259</v>
       </c>
     </row>
     <row r="16">
@@ -1556,16 +1556,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5454</v>
+        <v>5336</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.005315200616271458</v>
+        <v>0.005315200616271459</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02888320179204532</v>
+        <v>0.02825657716160126</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1574,19 +1574,19 @@
         <v>3406</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1194</v>
+        <v>1027</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8114</v>
+        <v>7645</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03932128223235348</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01378322554211327</v>
+        <v>0.01185945253856975</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09367603779931791</v>
+        <v>0.08825823195391279</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1595,19 +1595,19 @@
         <v>4410</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9240</v>
+        <v>10414</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01600881530259202</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00620931244717689</v>
+        <v>0.006178978392895881</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03354398700855873</v>
+        <v>0.03780729100779319</v>
       </c>
     </row>
     <row r="17">
@@ -1746,19 +1746,19 @@
         <v>142736</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>121208</v>
+        <v>121218</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>165721</v>
+        <v>166868</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2788702942470906</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2368099714357837</v>
+        <v>0.2368305794591397</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3237779406266098</v>
+        <v>0.3260196131511507</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>75</v>
@@ -1767,19 +1767,19 @@
         <v>58610</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>46293</v>
+        <v>46265</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71940</v>
+        <v>71498</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1513438570216911</v>
+        <v>0.1513438570216912</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1195385494729935</v>
+        <v>0.1194678789741696</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1857650147304335</v>
+        <v>0.1846255145958525</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>194</v>
@@ -1788,19 +1788,19 @@
         <v>201345</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>173341</v>
+        <v>175898</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>226634</v>
+        <v>228062</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2239416525418079</v>
+        <v>0.2239416525418078</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1927950013233665</v>
+        <v>0.1956390013589101</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.252068998271512</v>
+        <v>0.2536569141791728</v>
       </c>
     </row>
     <row r="20">
@@ -1817,19 +1817,19 @@
         <v>354220</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>330889</v>
+        <v>330468</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>376691</v>
+        <v>377115</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6920592319789078</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6464758247991472</v>
+        <v>0.6456527193331721</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7359613971930954</v>
+        <v>0.7367903799391017</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>450</v>
@@ -1838,19 +1838,19 @@
         <v>318484</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>304694</v>
+        <v>304152</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>331656</v>
+        <v>331995</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8223997676874875</v>
+        <v>0.8223997676874878</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7867892557701378</v>
+        <v>0.7853900868629345</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8564134122740293</v>
+        <v>0.8572890735969212</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>814</v>
@@ -1859,19 +1859,19 @@
         <v>672704</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>646816</v>
+        <v>645872</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>702292</v>
+        <v>697309</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7481999722158291</v>
+        <v>0.748199972215829</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7194067281760714</v>
+        <v>0.7183564745023451</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7811082420401462</v>
+        <v>0.7755656905717333</v>
       </c>
     </row>
     <row r="21">
@@ -1888,19 +1888,19 @@
         <v>14879</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7930</v>
+        <v>8117</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>27185</v>
+        <v>26256</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.0290704737740016</v>
+        <v>0.02907047377400159</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01549295778754423</v>
+        <v>0.01585820981905556</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05311225178873987</v>
+        <v>0.05129803801717909</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1909,19 +1909,19 @@
         <v>9466</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5384</v>
+        <v>5103</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16839</v>
+        <v>16622</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.02444287878597337</v>
+        <v>0.02444287878597338</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01390361470497509</v>
+        <v>0.01317733156680892</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04348310973556227</v>
+        <v>0.04292308216516613</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>25</v>
@@ -1930,19 +1930,19 @@
         <v>24345</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15417</v>
+        <v>15807</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>36276</v>
+        <v>37019</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02707725956222765</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01714695409939291</v>
+        <v>0.01758048575150532</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0403466400079224</v>
+        <v>0.04117408037819811</v>
       </c>
     </row>
     <row r="22">
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3900</v>
+        <v>3566</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001813496504847828</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01007095143806669</v>
+        <v>0.009209472895739434</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -1996,16 +1996,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3563</v>
+        <v>4181</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0007811156801354521</v>
+        <v>0.000781115680135452</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.003963266080479198</v>
+        <v>0.004650777125526332</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>80246</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>63857</v>
+        <v>61624</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>98189</v>
+        <v>98428</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3016705856544086</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2400594106747919</v>
+        <v>0.2316647686593915</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3691215006838975</v>
+        <v>0.3700189483527297</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>84</v>
@@ -2118,19 +2118,19 @@
         <v>62870</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>49769</v>
+        <v>51660</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>75974</v>
+        <v>76357</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1615675520906282</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1279008151039536</v>
+        <v>0.1327588615594587</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1952444173970058</v>
+        <v>0.1962271637708028</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>145</v>
@@ -2139,19 +2139,19 @@
         <v>143116</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>121220</v>
+        <v>122389</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>166945</v>
+        <v>168013</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2184546200512753</v>
+        <v>0.2184546200512752</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1850319541874734</v>
+        <v>0.1868163917353506</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2548275122520434</v>
+        <v>0.2564581084486868</v>
       </c>
     </row>
     <row r="25">
@@ -2168,19 +2168,19 @@
         <v>179284</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>160843</v>
+        <v>160490</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>196732</v>
+        <v>198576</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.6739835517790148</v>
+        <v>0.673983551779015</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6046578519563278</v>
+        <v>0.6033289441907735</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7395729394614985</v>
+        <v>0.7465048497975284</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>488</v>
@@ -2189,19 +2189,19 @@
         <v>319872</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>306165</v>
+        <v>305608</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>333399</v>
+        <v>331703</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8220340479376591</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7868086740122108</v>
+        <v>0.785376784469435</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8567946925202139</v>
+        <v>0.8524372312076404</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>671</v>
@@ -2210,19 +2210,19 @@
         <v>499157</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>473889</v>
+        <v>473440</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>521402</v>
+        <v>520706</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7619200131280545</v>
+        <v>0.7619200131280544</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7233516997138053</v>
+        <v>0.7226655938202257</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7958755289400276</v>
+        <v>0.794812704470466</v>
       </c>
     </row>
     <row r="26">
@@ -2239,19 +2239,19 @@
         <v>6476</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1338</v>
+        <v>895</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22535</v>
+        <v>23220</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02434586256657667</v>
+        <v>0.02434586256657668</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005028815570112931</v>
+        <v>0.003363167167265273</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08471728578299316</v>
+        <v>0.08729134783871906</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -2260,19 +2260,19 @@
         <v>5632</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2646</v>
+        <v>2510</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10671</v>
+        <v>10647</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01447458932044989</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006799514398467486</v>
+        <v>0.006450765801889173</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02742326647932987</v>
+        <v>0.02736175874309528</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -2281,19 +2281,19 @@
         <v>12109</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5908</v>
+        <v>6175</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27431</v>
+        <v>30109</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0184826951960082</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009018811066650182</v>
+        <v>0.009425348707996609</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04187157343726956</v>
+        <v>0.04595880120196334</v>
       </c>
     </row>
     <row r="27">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4401</v>
+        <v>4081</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.00192381065126285</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01130901065600092</v>
+        <v>0.01048760669663265</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1</v>
@@ -2347,16 +2347,16 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>3823</v>
+        <v>4546</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.001142671624662223</v>
+        <v>0.001142671624662222</v>
       </c>
       <c r="V27" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.005835913807920845</v>
+        <v>0.006939609523780811</v>
       </c>
     </row>
     <row r="28">
@@ -2448,19 +2448,19 @@
         <v>48002</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>32463</v>
+        <v>32673</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>64630</v>
+        <v>65518</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4087426540114085</v>
+        <v>0.4087426540114084</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2764266719877455</v>
+        <v>0.2782211787774703</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5503414614520631</v>
+        <v>0.5578964819844814</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>80</v>
@@ -2469,19 +2469,19 @@
         <v>81472</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>65576</v>
+        <v>65492</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>101623</v>
+        <v>99775</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2293549125459626</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1846056189983739</v>
+        <v>0.1843691139427849</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2860827250179137</v>
+        <v>0.280881269139855</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>100</v>
@@ -2490,19 +2490,19 @@
         <v>129474</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>106104</v>
+        <v>105885</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>155185</v>
+        <v>155120</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2739256109436541</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2244835738882573</v>
+        <v>0.2240200740461508</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3283226415432163</v>
+        <v>0.3281846066706525</v>
       </c>
     </row>
     <row r="30">
@@ -2519,19 +2519,19 @@
         <v>69435</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>52807</v>
+        <v>51919</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>84974</v>
+        <v>84764</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5912573459885916</v>
+        <v>0.5912573459885915</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4496585385479369</v>
+        <v>0.4421035180155187</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7235733280122543</v>
+        <v>0.7217788212225298</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>399</v>
@@ -2540,19 +2540,19 @@
         <v>268960</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>248233</v>
+        <v>250357</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>284936</v>
+        <v>285833</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7571592582673996</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6988079616477114</v>
+        <v>0.7047893685913533</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8021315879782267</v>
+        <v>0.8046591662934768</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>435</v>
@@ -2561,19 +2561,19 @@
         <v>338396</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>311449</v>
+        <v>311817</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>361267</v>
+        <v>361339</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7159392505044759</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6589279700524195</v>
+        <v>0.6597069116168485</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7643282650755651</v>
+        <v>0.7644789581113548</v>
       </c>
     </row>
     <row r="31">
@@ -2603,19 +2603,19 @@
         <v>4790</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1726</v>
+        <v>1748</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12144</v>
+        <v>12494</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01348582918663763</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.004859667821680363</v>
+        <v>0.004921420737923787</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03418709345093777</v>
+        <v>0.03517091718987153</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -2624,19 +2624,19 @@
         <v>4790</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1865</v>
+        <v>1740</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>14255</v>
+        <v>12467</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01013513855186986</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.003944794243532192</v>
+        <v>0.003680384408138646</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03015934267167072</v>
+        <v>0.02637574478670017</v>
       </c>
     </row>
     <row r="32">
@@ -2775,19 +2775,19 @@
         <v>406302</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>366393</v>
+        <v>366457</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>447722</v>
+        <v>447521</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2663484772485063</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2401858906659196</v>
+        <v>0.2402278322745041</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2935008584277101</v>
+        <v>0.2933690375460593</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>367</v>
@@ -2796,19 +2796,19 @@
         <v>303127</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>276805</v>
+        <v>275384</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>340597</v>
+        <v>335572</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.1837495007101324</v>
+        <v>0.1837495007101323</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1677936279241468</v>
+        <v>0.1669321043177295</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2064628641713473</v>
+        <v>0.2034171117472303</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>686</v>
@@ -2817,19 +2817,19 @@
         <v>709429</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>658054</v>
+        <v>657139</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>764079</v>
+        <v>767294</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2234332213585901</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2072525624091386</v>
+        <v>0.2069645320970952</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2406450219854711</v>
+        <v>0.2416577099040094</v>
       </c>
     </row>
     <row r="35">
@@ -2846,19 +2846,19 @@
         <v>1088333</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1045564</v>
+        <v>1045049</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1127899</v>
+        <v>1129979</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.7134483139720712</v>
+        <v>0.7134483139720714</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6854115493796754</v>
+        <v>0.6850743680418646</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7393855234935162</v>
+        <v>0.7407493449231098</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1903</v>
@@ -2867,19 +2867,19 @@
         <v>1311005</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1276375</v>
+        <v>1278009</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1339875</v>
+        <v>1340992</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.7947049561515076</v>
+        <v>0.7947049561515074</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.7737129797851086</v>
+        <v>0.7747033979823565</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.812205703055327</v>
+        <v>0.8128823085647905</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2985</v>
@@ -2888,19 +2888,19 @@
         <v>2399337</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2342517</v>
+        <v>2340563</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2448724</v>
+        <v>2453874</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.7556661444831525</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.7377705842213087</v>
+        <v>0.7371553553546581</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.7712201940700814</v>
+        <v>0.7728421503107605</v>
       </c>
     </row>
     <row r="36">
@@ -2917,19 +2917,19 @@
         <v>30819</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>18438</v>
+        <v>18524</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>47310</v>
+        <v>49570</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.02020320877942249</v>
+        <v>0.02020320877942248</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01208720807710766</v>
+        <v>0.01214343259963311</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03101383005200678</v>
+        <v>0.03249504969457433</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>45</v>
@@ -2938,19 +2938,19 @@
         <v>34092</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>25348</v>
+        <v>25259</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>47099</v>
+        <v>47503</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.020666038118159</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01536570300719687</v>
+        <v>0.01531167085948787</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02855051596068834</v>
+        <v>0.02879556128013598</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>67</v>
@@ -2959,19 +2959,19 @@
         <v>64911</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>49787</v>
+        <v>49349</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>86069</v>
+        <v>86524</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02044367712827679</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01568033198601317</v>
+        <v>0.0155424156213741</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0271073742015345</v>
+        <v>0.02725068118401239</v>
       </c>
     </row>
     <row r="37">
@@ -3004,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>4423</v>
+        <v>4630</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.0008795050202013229</v>
+        <v>0.0008795050202013228</v>
       </c>
       <c r="O37" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.002681173925636871</v>
+        <v>0.002806867086328835</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5091</v>
+        <v>5042</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0004569570299805151</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.00160343183265414</v>
+        <v>0.00158811450918059</v>
       </c>
     </row>
     <row r="38">
